--- a/pred_ohlcv/54_21/2020-01-20 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BHP ohlcv.xlsx
@@ -2004,7 +2004,7 @@
         <v>33249.27415897002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>34559.83995897001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>33987.01765897001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>33987.01765897001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>34756.45745897001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>34756.45745897001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>34986.45745897001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>34684.45745897001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>34206.87765897001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>32496.58155897001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>34864.27775897001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>37389.39065897001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>37407.49075897002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>37369.22795897002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>37415.47475897002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>37070.18405897002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>37070.18405897002</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>37173.11445897002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>37129.71485897002</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>37070.18395897002</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>37166.05785897002</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>37166.05785897002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>37166.05785897002</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>37168.04615897002</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>37168.04615897002</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>37168.54615897002</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>37166.58345897002</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>37685.76398193002</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>37605.77478193002</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>37606.27478193002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>35574.03018193002</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>35609.08228193002</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>30203.43508193002</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>30651.43118193002</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>30408.16128193002</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>30408.16128193002</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>30408.66128193002</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>30407.66128193002</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>30359.28108193002</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>30359.28108193002</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>30359.87388193002</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>30360.46258193002</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>28292.32718193002</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>28528.28518193002</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>28727.29288193002</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>28736.89288193002</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>28328.43078193002</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>28673.87138193002</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>28674.87138193002</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>29881.89538193002</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>29881.89538193002</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>29881.89538193002</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>29438.31268193002</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>28951.13538193002</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>28782.51738193003</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>28783.01738193003</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>26627.07068193002</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>26883.54938193002</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>26827.02258193002</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>29193.01828193002</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>37434.80518193002</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>37435.30518193002</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>37721.37439780002</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>37721.87439780002</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>37720.87439780002</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>34967.77689780002</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>33848.10599780003</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>33849.10599780003</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>31849.10599780003</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>32119.45629780002</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>32119.95629780002</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>31808.02669509003</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>31808.52669509003</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>31730.85569509003</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>31418.42109509003</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>31419.42109509003</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>31420.40939509003</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>31134.84009509003</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>29876.45969509003</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>27476.04099509003</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>27476.54919509003</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>24883.10319509003</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>24864.24249509003</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>24865.21431238003</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>22641.66681238003</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>22389.63401238003</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>15818.04041238003</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>15819.04041238003</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>15768.04041238003</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>15768.54041238003</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>14123.20581238003</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>14125.46791238003</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>13328.39191238003</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>16510.47311238003</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>13850.78461238003</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-11024.61278761997</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-16288.49248761998</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1347.521652880023</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4580.384781489977</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-6542.184481489978</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-6403.071681489978</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-6403.071681489978</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3708.235681489978</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2825.553181489978</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-12276.83708148998</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2577.99228148998</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-8430.256581489981</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-8924.39398148998</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-9168.826481489981</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-9171.479981489982</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-14101.44738148998</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-14101.44738148998</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-13930.26618148998</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-12952.27653502998</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-13357.94483502998</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-14166.49983502998</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-18802.51033502998</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BHP ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>17128.31555897001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>17125.31555897001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>17128.31555897001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>16911.76815897001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>16327.76815897001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>22480.22905897001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>22470.22905897001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>22469.22905897001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>22543.59915897001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>22540.59915897001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>30021.14565897001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>33249.27415897002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>34559.83995897001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>33987.01765897001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>33987.01765897001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>34756.45745897001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>34756.45745897001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>34986.45745897001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>34684.45745897001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>34206.87765897001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>32496.58155897001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>34864.27775897001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>37389.39065897001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>37407.49075897002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>37369.22795897002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>37415.47475897002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>37070.18405897002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>37070.18405897002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>37685.76398193002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>37605.77478193002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>37606.27478193002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>35574.03018193002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-11024.61278761997</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-16288.49248761998</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-7136.995787619977</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1347.521652880023</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4580.384781489977</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-6542.184481489978</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-6403.071681489978</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-6403.071681489978</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3708.235681489978</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2825.553181489978</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-12276.83708148998</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2577.99228148998</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-8430.256581489981</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-8924.39398148998</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-9168.826481489981</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-9171.479981489982</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-14101.44738148998</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-14101.44738148998</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-13930.26618148998</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-12952.27653502998</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-13357.94483502998</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-14166.49983502998</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-18802.51033502998</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
